--- a/iconMaps.xlsx
+++ b/iconMaps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10316"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kpotter1/otherCode/paulrwilliamsNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA66DEF-09C7-B445-BDCA-6E885B075FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541FCC80-BD23-AC4D-9DAB-48EB1FF431F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="520" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{4D34CBF4-BD01-144A-AAD2-28BD715DE9C7}"/>
+    <workbookView xWindow="1080" yWindow="3140" windowWidth="27640" windowHeight="16940" xr2:uid="{4D34CBF4-BD01-144A-AAD2-28BD715DE9C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Building Map" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Building Type</t>
   </si>
@@ -109,9 +109,6 @@
     <t>fa-bed</t>
   </si>
   <si>
-    <t>fa-hospital</t>
-  </si>
-  <si>
     <t>fa-building</t>
   </si>
   <si>
@@ -121,60 +118,12 @@
     <t>fa-home</t>
   </si>
   <si>
-    <t>fa-hotel</t>
-  </si>
-  <si>
     <t>fa-table-tennis</t>
   </si>
   <si>
     <t>fa-theater-masks</t>
   </si>
   <si>
-    <t>#e6194B</t>
-  </si>
-  <si>
-    <t>#3cb44b</t>
-  </si>
-  <si>
-    <t>#b2df8a</t>
-  </si>
-  <si>
-    <t>#4363d8</t>
-  </si>
-  <si>
-    <t>#f58231</t>
-  </si>
-  <si>
-    <t>#911eb4</t>
-  </si>
-  <si>
-    <t>#42d4f4</t>
-  </si>
-  <si>
-    <t>#f032e6</t>
-  </si>
-  <si>
-    <t>#bfef45</t>
-  </si>
-  <si>
-    <t>#fabed4</t>
-  </si>
-  <si>
-    <t>#469990</t>
-  </si>
-  <si>
-    <t>#dcbeff</t>
-  </si>
-  <si>
-    <t>#9A6324</t>
-  </si>
-  <si>
-    <t>#800000</t>
-  </si>
-  <si>
-    <t>#fffac8</t>
-  </si>
-  <si>
     <t>Client Type</t>
   </si>
   <si>
@@ -239,19 +188,81 @@
   </si>
   <si>
     <t>#bf5b17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3D2812 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#B37D8F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#8EA893 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#605666 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#C55028 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6E98B5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#93372E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#43602F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#F6BC52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1E3E74 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CE865D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#976069 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#D2C6AE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#4D6FA3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#62181C </t>
+  </si>
+  <si>
+    <t>fa-city</t>
+  </si>
+  <si>
+    <t>fa-first-aid</t>
+  </si>
+  <si>
+    <t>fa-place-of-worship</t>
+  </si>
+  <si>
+    <t>fa-monument</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF26190A"/>
+      <name val="MyriadPro"/>
     </font>
   </fonts>
   <fills count="2">
@@ -274,8 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,13 +604,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D265E18-E3AF-894E-B571-65A80791ADD7}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,169 +625,169 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -783,15 +799,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3DA8B2-FCA4-C34A-9CE5-2730815598BF}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -800,81 +816,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
